--- a/pred_ohlcv/54_21/2020-01-20 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>33407.87604228186</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>33896.76984228186</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23428.02714228186</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>26221.07544228186</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>34524.52296298098</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>33156.07926298097</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24852.63176298097</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25069.51026298097</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24819.51026298097</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>26323.83696298097</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>26323.83696298097</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-43132.32553701903</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-41138.98485438927</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-71026.78965438926</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-70253.26065438926</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-70253.26065438926</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-70453.26065438926</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-92483.23505438925</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-92483.23505438925</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-178782.3983543892</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ITC ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>26216.87194228186</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26221.07544228186</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>26221.07544228186</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>34524.52296298098</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>33156.07926298097</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24852.63176298097</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25069.51026298097</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24819.51026298097</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>26323.83696298097</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-43132.32553701903</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-71026.78965438926</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-70253.26065438926</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-70253.26065438926</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-70453.26065438926</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-92483.23505438925</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-92483.23505438925</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-178782.3983543892</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
